--- a/output/3_Regression/h19_test/h19table_mape.xlsx
+++ b/output/3_Regression/h19_test/h19table_mape.xlsx
@@ -438,10 +438,10 @@
         <v>3.793581971509743</v>
       </c>
       <c r="F2">
-        <v>5.571136475309067</v>
+        <v>5.553527153637592</v>
       </c>
       <c r="G2">
-        <v>1.03135295495308</v>
+        <v>0.0751432506309762</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>2.731834418218144</v>
       </c>
       <c r="F3">
-        <v>3.812179571268905</v>
+        <v>3.801346253354223</v>
       </c>
       <c r="G3">
-        <v>0.6154662237066736</v>
+        <v>0.5678032427365983</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2.327524887397326</v>
       </c>
       <c r="F4">
-        <v>3.151540626912377</v>
+        <v>3.143252278666117</v>
       </c>
       <c r="G4">
-        <v>0.5498586759646373</v>
+        <v>0.7096411144268531</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>2.108161315374548</v>
       </c>
       <c r="F5">
-        <v>2.789277288728058</v>
+        <v>2.782384482200214</v>
       </c>
       <c r="G5">
-        <v>0.7778248839215179</v>
+        <v>0.7568553685492801</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,10 +530,10 @@
         <v>1.956694256767152</v>
       </c>
       <c r="F6">
-        <v>2.554022206606015</v>
+        <v>2.548035669763689</v>
       </c>
       <c r="G6">
-        <v>0.8717208273879395</v>
+        <v>0.8184357708275644</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,10 +553,10 @@
         <v>1.839443312064669</v>
       </c>
       <c r="F7">
-        <v>2.384779774297518</v>
+        <v>2.37944520758277</v>
       </c>
       <c r="G7">
-        <v>0.8814493729870693</v>
+        <v>0.736810249817221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>1.755768013869778</v>
       </c>
       <c r="F8">
-        <v>2.253963105229178</v>
+        <v>2.249132481640622</v>
       </c>
       <c r="G8">
-        <v>0.914727180799196</v>
+        <v>0.7304486656130517</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>1.691282465633775</v>
       </c>
       <c r="F9">
-        <v>2.147894670540579</v>
+        <v>2.143472652819669</v>
       </c>
       <c r="G9">
-        <v>0.9813523046361848</v>
+        <v>0.9953292103932434</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,10 +622,10 @@
         <v>1.617299773103686</v>
       </c>
       <c r="F10">
-        <v>2.03047142214981</v>
+        <v>2.026268396336271</v>
       </c>
       <c r="G10">
-        <v>0.9491341409259086</v>
+        <v>1.071629014724628</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>1.54754821550246</v>
       </c>
       <c r="F11">
-        <v>1.935896020947755</v>
+        <v>1.9319006242929</v>
       </c>
       <c r="G11">
-        <v>0.9742855889909321</v>
+        <v>1.097278069627386</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>1.487067967194856</v>
       </c>
       <c r="F12">
-        <v>1.858384944326401</v>
+        <v>1.854581337818443</v>
       </c>
       <c r="G12">
-        <v>1.059441085485874</v>
+        <v>1.226084307032058</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>1.430681624343345</v>
       </c>
       <c r="F13">
-        <v>1.775905169916626</v>
+        <v>1.772198815966969</v>
       </c>
       <c r="G13">
-        <v>1.172904225854937</v>
+        <v>1.354722796719877</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19table_mape.xlsx
+++ b/output/3_Regression/h19_test/h19table_mape.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Benchmark</t>
-  </si>
-  <si>
-    <t>ARIMA</t>
   </si>
   <si>
     <t>VAR</t>
@@ -392,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -417,284 +414,245 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03017363642826809</v>
+        <v>0.03547830145871617</v>
       </c>
       <c r="C2">
-        <v>0.02631829626345962</v>
+        <v>6.378054701764283</v>
       </c>
       <c r="D2">
-        <v>7.714814007057873</v>
+        <v>8.233111565861066</v>
       </c>
       <c r="E2">
-        <v>3.793581971509743</v>
+        <v>8.233111565861066</v>
       </c>
       <c r="F2">
-        <v>5.553527153637592</v>
-      </c>
-      <c r="G2">
-        <v>0.0751432506309762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2.008480561244296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.04999004670599021</v>
+        <v>0.06155638254564591</v>
       </c>
       <c r="C3">
-        <v>0.07193041475952999</v>
+        <v>3.457827669565637</v>
       </c>
       <c r="D3">
-        <v>4.35290031912974</v>
+        <v>5.273827180080223</v>
       </c>
       <c r="E3">
-        <v>2.731834418218144</v>
+        <v>5.273827180080223</v>
       </c>
       <c r="F3">
-        <v>3.801346253354223</v>
-      </c>
-      <c r="G3">
-        <v>0.5678032427365983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.98085936410373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.06635826094073666</v>
+        <v>0.0884688359173222</v>
       </c>
       <c r="C4">
-        <v>0.2285969032207184</v>
+        <v>2.200441989660516</v>
       </c>
       <c r="D4">
-        <v>3.025009304061082</v>
+        <v>4.049107015444793</v>
       </c>
       <c r="E4">
-        <v>2.327524887397326</v>
+        <v>4.049107015444793</v>
       </c>
       <c r="F4">
-        <v>3.143252278666117</v>
-      </c>
-      <c r="G4">
-        <v>0.7096411144268531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1.655045903016555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08088001977534431</v>
+        <v>0.1127803374092936</v>
       </c>
       <c r="C5">
-        <v>0.4040196728581669</v>
+        <v>1.551905321450724</v>
       </c>
       <c r="D5">
-        <v>2.244711329931945</v>
+        <v>3.445248687159226</v>
       </c>
       <c r="E5">
-        <v>2.108161315374548</v>
+        <v>3.445248687159226</v>
       </c>
       <c r="F5">
-        <v>2.782384482200214</v>
-      </c>
-      <c r="G5">
-        <v>0.7568553685492801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.412191483666095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.09427835536530398</v>
+        <v>0.1321339093764368</v>
       </c>
       <c r="C6">
-        <v>0.5770652406862447</v>
+        <v>1.191457477143637</v>
       </c>
       <c r="D6">
-        <v>1.704946520164446</v>
+        <v>3.123393555005078</v>
       </c>
       <c r="E6">
-        <v>1.956694256767152</v>
+        <v>3.123393555005078</v>
       </c>
       <c r="F6">
-        <v>2.548035669763689</v>
-      </c>
-      <c r="G6">
-        <v>0.8184357708275644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.233396283019306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1070339730302721</v>
+        <v>0.1469239982206771</v>
       </c>
       <c r="C7">
-        <v>0.737369552318385</v>
+        <v>0.9773924096470399</v>
       </c>
       <c r="D7">
-        <v>1.301662029680685</v>
+        <v>2.934589750659267</v>
       </c>
       <c r="E7">
-        <v>1.839443312064669</v>
+        <v>2.934589750659267</v>
       </c>
       <c r="F7">
-        <v>2.37944520758277</v>
-      </c>
-      <c r="G7">
-        <v>0.736810249817221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1.128428626272945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1195347658967161</v>
+        <v>0.157831290659615</v>
       </c>
       <c r="C8">
-        <v>0.878007698640268</v>
+        <v>0.8523934756856811</v>
       </c>
       <c r="D8">
-        <v>1.009659954092299</v>
+        <v>2.818022087046118</v>
       </c>
       <c r="E8">
-        <v>1.755768013869778</v>
+        <v>2.818022087046118</v>
       </c>
       <c r="F8">
-        <v>2.249132481640622</v>
-      </c>
-      <c r="G8">
-        <v>0.7304486656130517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1.094202365754483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1320384948504039</v>
+        <v>0.1651689468380979</v>
       </c>
       <c r="C9">
-        <v>0.9950356632482514</v>
+        <v>0.7912366639825725</v>
       </c>
       <c r="D9">
-        <v>0.8423896057175918</v>
+        <v>2.748265884292789</v>
       </c>
       <c r="E9">
-        <v>1.691282465633775</v>
+        <v>2.748265884292789</v>
       </c>
       <c r="F9">
-        <v>2.143472652819669</v>
-      </c>
-      <c r="G9">
-        <v>0.9953292103932434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.078613294369816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1446812021600201</v>
+        <v>0.1706517144025569</v>
       </c>
       <c r="C10">
-        <v>1.08699617423807</v>
+        <v>0.7660691177499843</v>
       </c>
       <c r="D10">
-        <v>0.7424306447513489</v>
+        <v>2.70005914459706</v>
       </c>
       <c r="E10">
-        <v>1.617299773103686</v>
+        <v>2.70005914459706</v>
       </c>
       <c r="F10">
-        <v>2.026268396336271</v>
-      </c>
-      <c r="G10">
-        <v>1.071629014724628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1.079693617129408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.157482847124558</v>
+        <v>0.1762423657350663</v>
       </c>
       <c r="C11">
-        <v>1.154492308146973</v>
+        <v>0.7530952560224328</v>
       </c>
       <c r="D11">
-        <v>0.6813263481657063</v>
+        <v>2.653992304941807</v>
       </c>
       <c r="E11">
-        <v>1.54754821550246</v>
+        <v>2.653992304941807</v>
       </c>
       <c r="F11">
-        <v>1.9319006242929</v>
-      </c>
-      <c r="G11">
-        <v>1.097278069627386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1.113138297700205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1703728639158802</v>
+        <v>0.1836503513686081</v>
       </c>
       <c r="C12">
-        <v>1.199516135997545</v>
+        <v>0.7339580315581818</v>
       </c>
       <c r="D12">
-        <v>0.6441572590996393</v>
+        <v>2.597271153972899</v>
       </c>
       <c r="E12">
-        <v>1.487067967194856</v>
+        <v>2.597271153972899</v>
       </c>
       <c r="F12">
-        <v>1.854581337818443</v>
-      </c>
-      <c r="G12">
-        <v>1.226084307032058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1.123165608331261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1832577185051246</v>
+        <v>0.1933018482703754</v>
       </c>
       <c r="C13">
-        <v>1.224478223036924</v>
+        <v>0.7032458490895241</v>
       </c>
       <c r="D13">
-        <v>0.6225898986314168</v>
+        <v>2.529893810124591</v>
       </c>
       <c r="E13">
-        <v>1.430681624343345</v>
+        <v>2.529893810124591</v>
       </c>
       <c r="F13">
-        <v>1.772198815966969</v>
-      </c>
-      <c r="G13">
-        <v>1.354722796719877</v>
+        <v>1.111755091353749</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19table_mape.xlsx
+++ b/output/3_Regression/h19_test/h19table_mape.xlsx
@@ -426,13 +426,13 @@
         <v>6.378054701764283</v>
       </c>
       <c r="D2">
-        <v>8.233111565861066</v>
+        <v>6.022326028969972</v>
       </c>
       <c r="E2">
         <v>8.233111565861066</v>
       </c>
       <c r="F2">
-        <v>2.008480561244296</v>
+        <v>2.008480561244309</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,13 +446,13 @@
         <v>3.457827669565637</v>
       </c>
       <c r="D3">
-        <v>5.273827180080223</v>
+        <v>3.603838080596926</v>
       </c>
       <c r="E3">
         <v>5.273827180080223</v>
       </c>
       <c r="F3">
-        <v>1.98085936410373</v>
+        <v>1.980859364103732</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,13 +466,13 @@
         <v>2.200441989660516</v>
       </c>
       <c r="D4">
-        <v>4.049107015444793</v>
+        <v>3.096155447573689</v>
       </c>
       <c r="E4">
         <v>4.049107015444793</v>
       </c>
       <c r="F4">
-        <v>1.655045903016555</v>
+        <v>1.655045903016557</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,7 +486,7 @@
         <v>1.551905321450724</v>
       </c>
       <c r="D5">
-        <v>3.445248687159226</v>
+        <v>2.811636135168479</v>
       </c>
       <c r="E5">
         <v>3.445248687159226</v>
@@ -506,7 +506,7 @@
         <v>1.191457477143637</v>
       </c>
       <c r="D6">
-        <v>3.123393555005078</v>
+        <v>2.427428951987379</v>
       </c>
       <c r="E6">
         <v>3.123393555005078</v>
@@ -526,7 +526,7 @@
         <v>0.9773924096470399</v>
       </c>
       <c r="D7">
-        <v>2.934589750659267</v>
+        <v>2.021457134051028</v>
       </c>
       <c r="E7">
         <v>2.934589750659267</v>
@@ -546,13 +546,13 @@
         <v>0.8523934756856811</v>
       </c>
       <c r="D8">
-        <v>2.818022087046118</v>
+        <v>1.717181368761496</v>
       </c>
       <c r="E8">
         <v>2.818022087046118</v>
       </c>
       <c r="F8">
-        <v>1.094202365754483</v>
+        <v>1.094202365754482</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,7 +566,7 @@
         <v>0.7912366639825725</v>
       </c>
       <c r="D9">
-        <v>2.748265884292789</v>
+        <v>1.516998085865771</v>
       </c>
       <c r="E9">
         <v>2.748265884292789</v>
@@ -586,7 +586,7 @@
         <v>0.7660691177499843</v>
       </c>
       <c r="D10">
-        <v>2.70005914459706</v>
+        <v>1.305130158750158</v>
       </c>
       <c r="E10">
         <v>2.70005914459706</v>
@@ -606,7 +606,7 @@
         <v>0.7530952560224328</v>
       </c>
       <c r="D11">
-        <v>2.653992304941807</v>
+        <v>1.224920625319718</v>
       </c>
       <c r="E11">
         <v>2.653992304941807</v>
@@ -626,13 +626,13 @@
         <v>0.7339580315581818</v>
       </c>
       <c r="D12">
-        <v>2.597271153972899</v>
+        <v>1.170220070663189</v>
       </c>
       <c r="E12">
         <v>2.597271153972899</v>
       </c>
       <c r="F12">
-        <v>1.123165608331261</v>
+        <v>1.123165608331262</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,13 +646,13 @@
         <v>0.7032458490895241</v>
       </c>
       <c r="D13">
-        <v>2.529893810124591</v>
+        <v>1.104398827303093</v>
       </c>
       <c r="E13">
         <v>2.529893810124591</v>
       </c>
       <c r="F13">
-        <v>1.111755091353749</v>
+        <v>1.11175509135375</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19table_mape.xlsx
+++ b/output/3_Regression/h19_test/h19table_mape.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_76E80209DA30921FD2FE31D2F8F2D3C2545E4DBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A909556E-8FDD-48C3-8E04-6B7E557D2758}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -37,8 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,24 +99,174 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +304,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +373,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -415,187 +578,187 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03547830145871617</v>
+        <v>3.5478301458716173E-2</v>
       </c>
       <c r="C2">
-        <v>6.378054701764283</v>
+        <v>6.3780547017642828</v>
       </c>
       <c r="D2">
-        <v>6.022326028969972</v>
+        <v>6.0223260289699718</v>
       </c>
       <c r="E2">
-        <v>8.233111565861066</v>
+        <v>8.2331115658610656</v>
       </c>
       <c r="F2">
-        <v>2.008480561244309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2.008480561244296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.06155638254564591</v>
+        <v>6.155638254564591E-2</v>
       </c>
       <c r="C3">
-        <v>3.457827669565637</v>
+        <v>3.4578276695656371</v>
       </c>
       <c r="D3">
-        <v>3.603838080596926</v>
+        <v>3.6038380805969261</v>
       </c>
       <c r="E3">
-        <v>5.273827180080223</v>
+        <v>5.2738271800802234</v>
       </c>
       <c r="F3">
-        <v>1.980859364103732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.980859364103728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0884688359173222</v>
+        <v>8.84688359173222E-2</v>
       </c>
       <c r="C4">
-        <v>2.200441989660516</v>
+        <v>2.2004419896605159</v>
       </c>
       <c r="D4">
-        <v>3.096155447573689</v>
+        <v>3.0961554475736892</v>
       </c>
       <c r="E4">
-        <v>4.049107015444793</v>
+        <v>4.0491070154447932</v>
       </c>
       <c r="F4">
-        <v>1.655045903016557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.655045903016555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1127803374092936</v>
+        <v>0.11278033740929359</v>
       </c>
       <c r="C5">
-        <v>1.551905321450724</v>
+        <v>1.5519053214507239</v>
       </c>
       <c r="D5">
-        <v>2.811636135168479</v>
+        <v>2.8116361351684791</v>
       </c>
       <c r="E5">
-        <v>3.445248687159226</v>
+        <v>3.4452486871592258</v>
       </c>
       <c r="F5">
-        <v>1.412191483666095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1.412191483666094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1321339093764368</v>
+        <v>0.13213390937643679</v>
       </c>
       <c r="C6">
         <v>1.191457477143637</v>
       </c>
       <c r="D6">
-        <v>2.427428951987379</v>
+        <v>2.4274289519873791</v>
       </c>
       <c r="E6">
         <v>3.123393555005078</v>
       </c>
       <c r="F6">
-        <v>1.233396283019306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.2333962830193059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1469239982206771</v>
+        <v>0.14692399822067709</v>
       </c>
       <c r="C7">
-        <v>0.9773924096470399</v>
+        <v>0.97739240964703988</v>
       </c>
       <c r="D7">
-        <v>2.021457134051028</v>
+        <v>2.0214571340510279</v>
       </c>
       <c r="E7">
-        <v>2.934589750659267</v>
+        <v>2.9345897506592671</v>
       </c>
       <c r="F7">
         <v>1.128428626272945</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.157831290659615</v>
+        <v>0.15783129065961499</v>
       </c>
       <c r="C8">
-        <v>0.8523934756856811</v>
+        <v>0.85239347568568113</v>
       </c>
       <c r="D8">
-        <v>1.717181368761496</v>
+        <v>1.7171813687614961</v>
       </c>
       <c r="E8">
-        <v>2.818022087046118</v>
+        <v>2.8180220870461179</v>
       </c>
       <c r="F8">
-        <v>1.094202365754482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.094202365754483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1651689468380979</v>
+        <v>0.16516894683809791</v>
       </c>
       <c r="C9">
-        <v>0.7912366639825725</v>
+        <v>0.79123666398257253</v>
       </c>
       <c r="D9">
         <v>1.516998085865771</v>
       </c>
       <c r="E9">
-        <v>2.748265884292789</v>
+        <v>2.7482658842927892</v>
       </c>
       <c r="F9">
-        <v>1.078613294369816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.0786132943698159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1706517144025569</v>
+        <v>0.17065171440255689</v>
       </c>
       <c r="C10">
-        <v>0.7660691177499843</v>
+        <v>0.76606911774998432</v>
       </c>
       <c r="D10">
         <v>1.305130158750158</v>
       </c>
       <c r="E10">
-        <v>2.70005914459706</v>
+        <v>2.7000591445970601</v>
       </c>
       <c r="F10">
-        <v>1.079693617129408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.0796936171294089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -603,7 +766,7 @@
         <v>0.1762423657350663</v>
       </c>
       <c r="C11">
-        <v>0.7530952560224328</v>
+        <v>0.75309525602243277</v>
       </c>
       <c r="D11">
         <v>1.224920625319718</v>
@@ -612,50 +775,332 @@
         <v>2.653992304941807</v>
       </c>
       <c r="F11">
-        <v>1.113138297700205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1.1131382977002049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1836503513686081</v>
+        <v>0.18365035136860811</v>
       </c>
       <c r="C12">
-        <v>0.7339580315581818</v>
+        <v>0.73395803155818184</v>
       </c>
       <c r="D12">
-        <v>1.170220070663189</v>
+        <v>1.1702200706631889</v>
       </c>
       <c r="E12">
         <v>2.597271153972899</v>
       </c>
       <c r="F12">
-        <v>1.123165608331262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.1231656083312609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1933018482703754</v>
+        <v>0.19330184827037539</v>
       </c>
       <c r="C13">
-        <v>0.7032458490895241</v>
+        <v>0.70324584908952414</v>
       </c>
       <c r="D13">
-        <v>1.104398827303093</v>
+        <v>1.1043988273030929</v>
       </c>
       <c r="E13">
-        <v>2.529893810124591</v>
+        <v>2.5298938101245909</v>
       </c>
       <c r="F13">
-        <v>1.11175509135375</v>
+        <v>1.1117550913537491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <v>11</v>
+      </c>
+      <c r="M16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.5478301458716201E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.155638254564591E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8.84688359173222E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.11278033740929359</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.13213390937643699</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.14692399822067709</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.15783129065961499</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.16516894683809791</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.17065171440255689</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.1762423657350663</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.18365035136860811</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.19330184827037539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.3780547017642828</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.4578276695656371</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.2004419896605159</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.5519053214507239</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.191457477143637</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.97739240964703988</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.85239347568568113</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.79123666398257253</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.76606911774998432</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.75309525602243299</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.73395803155818196</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.70324584908952414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6.0223260289699718</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.6038380805969261</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.0961554475736892</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.8116361351684791</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.4274289519873791</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.0214571340510279</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.7171813687614961</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.5169980858657699</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.305130158750158</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.22492062531972</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.17022007066319</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.10439882730309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8.2331115658610656</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.2738271800802234</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4.0491070154447932</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.4452486871592258</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.123393555005078</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.9345897506592671</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.8180220870461179</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.7482658842927892</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2.7000591445970601</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.6539923049418102</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2.597271153972899</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2.52989381012459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.008480561244296</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.980859364103728</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.655045903016555</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.412191483666094</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.2333962830193059</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.128428626272945</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.094202365754483</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.0786132943698199</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.0796936171294089</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.1131382977002049</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.1231656083312609</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.1117550913537499</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B18:B21">
+    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C21">
+    <cfRule type="top10" dxfId="12" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D21">
+    <cfRule type="top10" dxfId="11" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E21">
+    <cfRule type="top10" dxfId="10" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G21">
+    <cfRule type="top10" dxfId="7" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H21">
+    <cfRule type="top10" dxfId="6" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I21">
+    <cfRule type="top10" dxfId="5" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J21">
+    <cfRule type="top10" dxfId="4" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K21">
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L21">
+    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M21">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h19table_mape.xlsx
+++ b/output/3_Regression/h19_test/h19table_mape.xlsx
@@ -432,7 +432,7 @@
         <v>8.187624761629799</v>
       </c>
       <c r="F2">
-        <v>1.607189074992313</v>
+        <v>1.607189074992309</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>5.246950401187979</v>
       </c>
       <c r="F3">
-        <v>2.02259821040841</v>
+        <v>2.022598210408406</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>4.029932123335245</v>
       </c>
       <c r="F4">
-        <v>1.877908296476299</v>
+        <v>1.877908296476298</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>3.429871273536223</v>
       </c>
       <c r="F5">
-        <v>1.635114950453259</v>
+        <v>1.635114950453258</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -652,7 +652,7 @@
         <v>2.520272780557701</v>
       </c>
       <c r="F13">
-        <v>1.148853349459406</v>
+        <v>1.148853349459405</v>
       </c>
     </row>
   </sheetData>
